--- a/Weekly Schedule/biweekly-work-schedule-王自冲.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-王自冲.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRE\worklog\Project Process library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>MORNING</t>
   </si>
@@ -94,6 +94,50 @@
   </si>
   <si>
     <t>« Every Monday</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>网融天下RA问题解决</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>修电脑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通签名验签服务器性能测试支持</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>取电脑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差至郑州银行</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化项目驻场支持</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化项目驻场支持</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化项目驻场支持</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化项目驻场支持</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化项目驻场支持</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回京</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -635,6 +679,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,15 +705,12 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -947,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -976,8 +1023,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -1031,10 +1078,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="47">
         <v>2016</v>
       </c>
-      <c r="M3" s="46"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1045,16 +1092,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="47">
+      <c r="G4" s="49">
         <f>DATE(L3,I3,1)</f>
         <v>42401</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1097,8 +1144,12 @@
         <f>B7</f>
         <v>42814</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="G6" s="35" t="str">
         <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
@@ -1133,7 +1184,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="44">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1173,7 +1224,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="41"/>
@@ -1209,7 +1260,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1283,9 +1334,15 @@
         <f>B12</f>
         <v>42815</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1318,7 +1375,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="44">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1336,7 +1393,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1353,7 +1410,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1389,9 +1446,15 @@
         <f>B17</f>
         <v>42816</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="18"/>
       <c r="H16" s="2"/>
@@ -1399,7 +1462,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="44">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1410,7 +1473,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1418,7 +1481,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1431,13 +1494,19 @@
         <f>B22</f>
         <v>42817</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="14"/>
+      <c r="C21" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="44">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1447,14 +1516,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1467,13 +1536,19 @@
         <f>B27</f>
         <v>42818</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="14"/>
+      <c r="C26" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="44">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1483,14 +1558,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1509,7 +1584,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="44">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1519,14 +1594,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1545,7 +1620,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="44">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1555,14 +1630,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1598,7 +1673,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="44">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1608,14 +1683,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1639,7 +1714,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="44">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1649,14 +1724,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1680,7 +1755,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="44">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1690,14 +1765,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="12"/>
       <c r="D55" s="42"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1716,7 +1791,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="44">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1726,14 +1801,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="12"/>
       <c r="D60" s="43"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1752,7 +1827,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="44">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1762,14 +1837,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1788,7 +1863,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="44">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1798,14 +1873,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1824,7 +1899,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="44">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1834,25 +1909,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -1867,6 +1937,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
